--- a/api/Roush/Book1.xlsx
+++ b/api/Roush/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shamb\OneDrive\Documents\Desktop\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roush\OneDrive\Desktop\smart education\Smart-education-main\api\Roush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E53D5C2-997A-41EB-A34D-AA7C013440FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6411A7D5-C613-46DB-8875-6BD218B95DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{F8AB4959-5F07-4198-A6A0-E7630F90017F}"/>
+    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8880" xr2:uid="{F8AB4959-5F07-4198-A6A0-E7630F90017F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="82">
   <si>
     <t>S no.</t>
   </si>
@@ -634,6 +634,21 @@
   </si>
   <si>
     <t>What is the difference between / and // in Python?</t>
+  </si>
+  <si>
+    <t>What are the key differences between Python 2 and Python 3?</t>
+  </si>
+  <si>
+    <t>Explain the concept of Python's Global Interpreter Lock (GIL)</t>
+  </si>
+  <si>
+    <t>What are Python decorators?</t>
+  </si>
+  <si>
+    <t>What is the difference between mutable and immutable data types in Python?</t>
+  </si>
+  <si>
+    <t>Describe the difference between shallow copy and deep copy in Python.</t>
   </si>
 </sst>
 </file>
@@ -1005,15 +1020,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA141C9A-F7FA-418E-8ED4-8DE5F678A24F}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="87.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="87.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1837,6 +1852,12 @@
       </c>
     </row>
     <row r="42" spans="1:6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>10</v>
       </c>
@@ -1851,6 +1872,12 @@
       </c>
     </row>
     <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>11</v>
       </c>
@@ -1865,6 +1892,12 @@
       </c>
     </row>
     <row r="44" spans="1:6">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
@@ -1879,6 +1912,12 @@
       </c>
     </row>
     <row r="45" spans="1:6">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
@@ -1893,6 +1932,12 @@
       </c>
     </row>
     <row r="46" spans="1:6">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
@@ -1907,6 +1952,12 @@
       </c>
     </row>
     <row r="47" spans="1:6">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
@@ -1921,6 +1972,12 @@
       </c>
     </row>
     <row r="48" spans="1:6">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>10</v>
       </c>
@@ -1934,7 +1991,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="3:6">
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>11</v>
       </c>
@@ -1948,7 +2011,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="3:6">
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>6</v>
       </c>
@@ -1962,7 +2031,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="3:6">
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>7</v>
       </c>
@@ -1990,12 +2065,12 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="95.140625" customWidth="1"/>
+    <col min="2" max="2" width="95.109375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2518,7 +2593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="19.5">
+    <row r="27" spans="1:6" ht="19.2">
       <c r="B27" s="2"/>
     </row>
   </sheetData>
